--- a/update_he/input.xlsx
+++ b/update_he/input.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
